--- a/BackTest/2020-01-12 BackTest TRX.xlsx
+++ b/BackTest/2020-01-12 BackTest TRX.xlsx
@@ -5246,17 +5246,13 @@
         <v>16.50499999999999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K139" t="n">
-        <v>16.39</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
@@ -5285,22 +5281,14 @@
         <v>16.50233333333332</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K140" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5328,22 +5316,14 @@
         <v>16.50066666666666</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K141" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5371,22 +5351,14 @@
         <v>16.49849999999999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="K142" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5414,22 +5386,14 @@
         <v>16.49616666666666</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K143" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5457,22 +5421,14 @@
         <v>16.49399999999999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K144" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5500,22 +5456,14 @@
         <v>16.49199999999999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K145" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5543,22 +5491,14 @@
         <v>16.49049999999999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K146" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5586,22 +5526,14 @@
         <v>16.48933333333332</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K147" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5629,22 +5561,14 @@
         <v>16.48866666666665</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K148" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5672,22 +5596,14 @@
         <v>16.48766666666666</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K149" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5715,22 +5631,14 @@
         <v>16.48549999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K150" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5758,22 +5666,14 @@
         <v>16.48349999999999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K151" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5801,22 +5701,14 @@
         <v>16.48149999999999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K152" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5844,22 +5736,14 @@
         <v>16.47949999999999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K153" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5887,22 +5771,14 @@
         <v>16.47733333333332</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K154" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5930,22 +5806,14 @@
         <v>16.47516666666666</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K155" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5973,22 +5841,14 @@
         <v>16.47283333333332</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K156" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6016,22 +5876,14 @@
         <v>16.47149999999999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K157" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6059,22 +5911,14 @@
         <v>16.46966666666665</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K158" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6102,22 +5946,14 @@
         <v>16.46799999999999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K159" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6145,22 +5981,14 @@
         <v>16.46533333333332</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K160" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6188,22 +6016,14 @@
         <v>16.46183333333332</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="K161" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6231,22 +6051,14 @@
         <v>16.45816666666665</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K162" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6274,22 +6086,14 @@
         <v>16.45483333333332</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K163" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6317,22 +6121,14 @@
         <v>16.45183333333332</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K164" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6360,22 +6156,14 @@
         <v>16.44949999999998</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K165" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6403,22 +6191,14 @@
         <v>16.44633333333332</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K166" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6446,22 +6226,14 @@
         <v>16.44316666666665</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K167" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6489,22 +6261,14 @@
         <v>16.44016666666665</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K168" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6532,22 +6296,14 @@
         <v>16.43716666666664</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K169" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6575,22 +6331,14 @@
         <v>16.43583333333331</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K170" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6618,22 +6366,14 @@
         <v>16.43383333333331</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K171" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6661,22 +6401,14 @@
         <v>16.43083333333331</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K172" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6704,22 +6436,14 @@
         <v>16.42949999999998</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K173" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6747,22 +6471,14 @@
         <v>16.42816666666665</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K174" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6790,22 +6506,14 @@
         <v>16.42683333333332</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K175" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6833,22 +6541,14 @@
         <v>16.42599999999998</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K176" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6876,22 +6576,14 @@
         <v>16.42499999999999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K177" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6919,22 +6611,14 @@
         <v>16.42366666666665</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K178" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6962,22 +6646,14 @@
         <v>16.42299999999998</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K179" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7005,22 +6681,14 @@
         <v>16.42316666666665</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K180" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7048,22 +6716,14 @@
         <v>16.42266666666665</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K181" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7091,22 +6751,14 @@
         <v>16.42333333333331</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="K182" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7134,22 +6786,14 @@
         <v>16.42299999999998</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K183" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7177,22 +6821,14 @@
         <v>16.42349999999998</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K184" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7220,22 +6856,14 @@
         <v>16.42416666666665</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K185" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7263,22 +6891,14 @@
         <v>16.42466666666665</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K186" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7306,22 +6926,14 @@
         <v>16.42433333333332</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K187" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7349,22 +6961,14 @@
         <v>16.42516666666665</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K188" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7392,22 +6996,14 @@
         <v>16.42599999999999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="K189" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7435,22 +7031,14 @@
         <v>16.42599999999999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="K190" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7478,22 +7066,14 @@
         <v>16.42716666666665</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K191" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7521,22 +7101,14 @@
         <v>16.42849999999999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="K192" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7564,22 +7136,14 @@
         <v>16.42933333333333</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="K193" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7613,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7648,22 +7206,14 @@
         <v>16.43149999999999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="K195" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7697,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7738,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7779,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7820,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7861,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7902,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7943,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7984,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8025,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8066,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8107,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8148,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8189,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8230,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8271,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8312,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8353,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8394,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8435,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8476,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8517,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8558,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8599,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8640,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8681,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8722,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8763,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8804,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8845,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8886,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8927,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8968,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9009,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9050,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9132,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9173,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9214,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9255,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9296,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9337,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9378,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9419,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9460,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9501,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9542,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9583,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9624,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9665,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9706,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9747,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9788,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9829,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9870,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9911,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9952,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9993,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10075,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10116,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10157,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10198,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10239,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10280,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10321,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10362,14 +9522,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10403,14 +9557,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10444,14 +9592,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10485,14 +9627,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10526,14 +9662,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10567,14 +9697,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10608,14 +9732,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10649,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10690,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10731,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10772,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10813,14 +9907,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10854,14 +9942,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10895,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10936,14 +10012,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10977,14 +10047,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11015,19 +10079,13 @@
         <v>0</v>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
-        <v>1.012693715680293</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -11056,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
@@ -11091,7 +10149,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
@@ -11126,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
@@ -17178,17 +16236,13 @@
         <v>16.46716666666667</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K453" t="n">
-        <v>16.43</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
@@ -17217,22 +16271,14 @@
         <v>16.46550000000001</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K454" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17260,22 +16306,14 @@
         <v>16.46416666666668</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K455" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17303,22 +16341,14 @@
         <v>16.46250000000001</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K456" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17346,22 +16376,14 @@
         <v>16.46100000000001</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K457" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17389,22 +16411,14 @@
         <v>16.45866666666668</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K458" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17432,22 +16446,14 @@
         <v>16.45733333333335</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K459" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17475,22 +16481,14 @@
         <v>16.45616666666668</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K460" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17518,22 +16516,14 @@
         <v>16.45550000000001</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K461" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17561,22 +16551,14 @@
         <v>16.45416666666668</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K462" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17604,22 +16586,14 @@
         <v>16.45300000000001</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K463" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17647,22 +16621,14 @@
         <v>16.45150000000001</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="K464" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17690,22 +16656,14 @@
         <v>16.44966666666668</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="K465" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17733,22 +16691,14 @@
         <v>16.44850000000001</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K466" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17776,22 +16726,14 @@
         <v>16.44666666666667</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="K467" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17819,22 +16761,14 @@
         <v>16.44483333333334</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="K468" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17862,22 +16796,14 @@
         <v>16.44383333333334</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K469" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17905,22 +16831,14 @@
         <v>16.44250000000001</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>16.39</v>
-      </c>
-      <c r="K470" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17948,22 +16866,14 @@
         <v>16.44133333333334</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K471" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17991,22 +16901,14 @@
         <v>16.44</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K472" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18034,22 +16936,14 @@
         <v>16.43933333333333</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
       </c>
-      <c r="J473" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K473" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18077,22 +16971,14 @@
         <v>16.43866666666667</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
       </c>
-      <c r="J474" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K474" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18120,22 +17006,14 @@
         <v>16.4375</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="K475" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18163,22 +17041,14 @@
         <v>16.43683333333333</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
       </c>
-      <c r="J476" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="K476" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18206,22 +17076,14 @@
         <v>16.43666666666666</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
       </c>
-      <c r="J477" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="K477" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18249,22 +17111,14 @@
         <v>16.4365</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
       </c>
-      <c r="J478" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K478" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18292,22 +17146,14 @@
         <v>16.4365</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
       </c>
-      <c r="J479" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K479" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18335,22 +17181,14 @@
         <v>16.4355</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
       </c>
-      <c r="J480" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K480" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18378,22 +17216,14 @@
         <v>16.43433333333333</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
       </c>
-      <c r="J481" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K481" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18421,22 +17251,14 @@
         <v>16.43416666666666</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
       </c>
-      <c r="J482" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="K482" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18464,22 +17286,14 @@
         <v>16.43383333333333</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
       </c>
-      <c r="J483" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="K483" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18507,22 +17321,14 @@
         <v>16.434</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
       </c>
-      <c r="J484" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K484" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18550,22 +17356,14 @@
         <v>16.43433333333333</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K485" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18593,22 +17391,14 @@
         <v>16.43383333333333</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K486" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18636,22 +17426,14 @@
         <v>16.43383333333333</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
       </c>
-      <c r="J487" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K487" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18679,22 +17461,14 @@
         <v>16.43283333333333</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K488" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18722,22 +17496,14 @@
         <v>16.43183333333333</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K489" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18765,22 +17531,14 @@
         <v>16.4315</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K490" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18808,22 +17566,14 @@
         <v>16.43083333333333</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K491" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18851,22 +17601,14 @@
         <v>16.43083333333333</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K492" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18894,22 +17636,14 @@
         <v>16.43049999999999</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K493" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18937,22 +17671,14 @@
         <v>16.42966666666666</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K494" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18980,22 +17706,14 @@
         <v>16.42916666666666</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K495" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19023,22 +17741,14 @@
         <v>16.42849999999999</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K496" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19066,22 +17776,14 @@
         <v>16.42899999999999</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K497" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19109,22 +17811,14 @@
         <v>16.42966666666666</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K498" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19152,22 +17846,14 @@
         <v>16.43049999999999</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="K499" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19195,22 +17881,14 @@
         <v>16.43166666666666</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="K500" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19238,22 +17916,14 @@
         <v>16.43366666666666</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K501" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19281,22 +17951,14 @@
         <v>16.435</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="K502" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19330,14 +17992,8 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19371,14 +18027,8 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19412,14 +18062,8 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19453,14 +18097,8 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19494,14 +18132,8 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19535,14 +18167,8 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19576,14 +18202,8 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19617,14 +18237,8 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19658,14 +18272,8 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19699,14 +18307,8 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19740,14 +18342,8 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19781,14 +18377,8 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19822,14 +18412,8 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19863,14 +18447,8 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19904,14 +18482,8 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19945,14 +18517,8 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19986,14 +18552,8 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -20027,14 +18587,8 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -20068,14 +18622,8 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -20109,14 +18657,8 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -20150,14 +18692,8 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -20191,14 +18727,8 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -20232,14 +18762,8 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -20273,14 +18797,8 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -20314,14 +18832,8 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -20355,14 +18867,8 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20396,14 +18902,8 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20437,14 +18937,8 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20478,14 +18972,8 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20513,22 +19001,14 @@
         <v>16.47366666666665</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
       </c>
-      <c r="J532" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K532" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20562,14 +19042,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20603,14 +19077,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20638,22 +19106,14 @@
         <v>16.47449999999998</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
       </c>
-      <c r="J535" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K535" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20681,22 +19141,14 @@
         <v>16.47466666666665</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
       </c>
-      <c r="J536" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="K536" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20724,22 +19176,14 @@
         <v>16.47449999999998</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
       </c>
-      <c r="J537" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="K537" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20767,22 +19211,14 @@
         <v>16.47499999999998</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
       </c>
-      <c r="J538" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="K538" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20810,22 +19246,14 @@
         <v>16.47549999999999</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
       </c>
-      <c r="J539" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="K539" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20853,22 +19281,14 @@
         <v>16.47516666666665</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
       </c>
-      <c r="J540" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="K540" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20902,14 +19322,8 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20937,22 +19351,14 @@
         <v>16.47533333333332</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
       </c>
-      <c r="J542" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="K542" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20986,14 +19392,8 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -21027,14 +19427,8 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -21068,14 +19462,8 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -21109,14 +19497,8 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -21150,14 +19532,8 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +19567,8 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -21232,14 +19602,8 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -21273,14 +19637,8 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -21314,14 +19672,8 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -21355,14 +19707,8 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -21396,14 +19742,8 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -21437,14 +19777,8 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -21478,14 +19812,8 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -21519,14 +19847,8 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -21560,14 +19882,8 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -21601,14 +19917,8 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -21642,14 +19952,8 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -21683,14 +19987,8 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -21724,14 +20022,8 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -21765,14 +20057,8 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -21806,14 +20092,8 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -21847,14 +20127,8 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -21888,14 +20162,8 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -21929,14 +20197,8 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -21970,14 +20232,8 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -22011,14 +20267,8 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -22052,14 +20302,8 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -22093,14 +20337,8 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -22134,14 +20372,8 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -22175,14 +20407,8 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -22216,14 +20442,8 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -22257,14 +20477,8 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -22295,17 +20509,11 @@
         <v>0</v>
       </c>
       <c r="I575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -22336,17 +20544,11 @@
         <v>0</v>
       </c>
       <c r="I576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -22380,14 +20582,8 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -22418,19 +20614,13 @@
         <v>0</v>
       </c>
       <c r="I578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
-        <v>1.012041996348144</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -22564,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
@@ -22599,7 +20789,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
@@ -22634,7 +20824,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
@@ -22669,7 +20859,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
@@ -22704,7 +20894,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
@@ -22739,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
@@ -22774,7 +20964,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
@@ -22809,7 +20999,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
@@ -22844,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
@@ -22879,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
@@ -22914,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
@@ -22949,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
@@ -22984,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
@@ -23019,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
@@ -23054,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
@@ -23229,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
@@ -23264,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
@@ -23299,7 +21489,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
@@ -23334,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
@@ -23369,7 +21559,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
@@ -23404,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
@@ -24384,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
@@ -24419,7 +22609,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
@@ -24454,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
@@ -24489,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
@@ -25606,14 +23796,20 @@
         <v>16.7075</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>16.44</v>
+      </c>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -25641,14 +23837,20 @@
         <v>16.703</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>16.41</v>
+      </c>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -25676,14 +23878,20 @@
         <v>16.69833333333333</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>16.41</v>
+      </c>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -25711,14 +23919,20 @@
         <v>16.69483333333333</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>16.42</v>
+      </c>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -25746,14 +23960,20 @@
         <v>16.69183333333333</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -25781,14 +24001,20 @@
         <v>16.68866666666667</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>16.46</v>
+      </c>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -25823,7 +24049,11 @@
       </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -25858,7 +24088,11 @@
       </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -25893,7 +24127,11 @@
       </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -25928,7 +24166,11 @@
       </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -25963,7 +24205,11 @@
       </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -25998,7 +24244,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -26033,7 +24283,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -26068,7 +24322,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -26103,7 +24361,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -26138,7 +24400,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -26173,7 +24439,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -26208,7 +24478,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -26243,7 +24517,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -26278,7 +24556,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -26313,7 +24595,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -26348,7 +24634,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -26383,7 +24673,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -26418,7 +24712,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -26453,7 +24751,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -26488,7 +24790,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -26516,14 +24822,20 @@
         <v>16.56016666666667</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>16.46</v>
+      </c>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +24870,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -26593,7 +24909,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -26628,7 +24948,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -26663,7 +24987,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -26698,7 +25026,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -26733,7 +25065,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -26768,7 +25104,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -26803,7 +25143,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -26838,7 +25182,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -26873,7 +25221,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -26908,7 +25260,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -26943,7 +25299,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -26978,7 +25338,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -27013,7 +25377,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -27048,7 +25416,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -27083,7 +25455,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -27118,7 +25494,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -27153,7 +25533,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -27188,7 +25572,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -27223,7 +25611,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -27258,7 +25650,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -27293,7 +25689,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -27328,7 +25728,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -27363,7 +25767,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -27398,7 +25806,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -27433,7 +25845,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -27468,7 +25884,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -27503,7 +25923,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -27538,7 +25962,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -27573,7 +26001,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -27608,7 +26040,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -27643,7 +26079,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -27678,7 +26118,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +26157,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -27748,7 +26196,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -27783,7 +26235,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -27818,7 +26274,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest TRX.xlsx
+++ b/BackTest/2020-01-12 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>522148.5398110501</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>522148.5398110501</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>16.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -602,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -641,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -680,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -719,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -758,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -797,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -836,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -875,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -914,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -953,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -992,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1031,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1070,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1109,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1148,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1187,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1226,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1265,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1304,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1343,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1382,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1421,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1460,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1499,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1538,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1577,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1616,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1655,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1694,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1733,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1772,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1811,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1847,17 +1639,11 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1886,17 +1672,11 @@
         <v>7470352.53821718</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1925,17 +1705,11 @@
         <v>7759013.17876962</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1964,17 +1738,11 @@
         <v>7467937.52436962</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2003,17 +1771,11 @@
         <v>9595191.385669619</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2042,17 +1804,11 @@
         <v>9195159.871969618</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2081,17 +1837,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2120,17 +1870,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2159,17 +1903,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2198,17 +1936,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2237,17 +1969,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2276,17 +2002,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2315,17 +2035,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2354,17 +2068,11 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2393,17 +2101,11 @@
         <v>9577899.596869618</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2432,17 +2134,11 @@
         <v>9649199.596869618</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2471,17 +2167,11 @@
         <v>10158687.31203517</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2510,17 +2200,11 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2744,17 +2398,11 @@
         <v>10033841.12903517</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2822,17 +2464,11 @@
         <v>10163999.55143517</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2861,17 +2497,11 @@
         <v>10114880.07073517</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2900,17 +2530,11 @@
         <v>10182744.28023517</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2939,17 +2563,11 @@
         <v>10331344.28023517</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2978,17 +2596,11 @@
         <v>10363944.28023517</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3017,17 +2629,11 @@
         <v>10332442.27443517</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3056,17 +2662,11 @@
         <v>10332482.27443517</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3095,17 +2695,11 @@
         <v>10233466.10453517</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3134,17 +2728,11 @@
         <v>10232589.28423517</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3173,17 +2761,11 @@
         <v>10232811.28423517</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3212,17 +2794,11 @@
         <v>10231499.80403517</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3251,17 +2827,11 @@
         <v>10234022.84683517</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3290,17 +2860,11 @@
         <v>10207198.60153517</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3329,17 +2893,11 @@
         <v>10159212.40743517</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3368,17 +2926,11 @@
         <v>10161232.59743517</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3407,17 +2959,11 @@
         <v>10139356.10893517</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3446,17 +2992,11 @@
         <v>10443633.53323517</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3485,17 +3025,11 @@
         <v>10279988.53323517</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3524,17 +3058,11 @@
         <v>10309493.36773517</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3563,17 +3091,11 @@
         <v>10572596.29353517</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3602,17 +3124,11 @@
         <v>10511384.45443517</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3641,17 +3157,11 @@
         <v>10575026.11023517</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3680,17 +3190,11 @@
         <v>10164077.07223517</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3719,17 +3223,11 @@
         <v>10605509.71193516</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3758,17 +3256,11 @@
         <v>10782207.77163516</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3797,17 +3289,11 @@
         <v>10830957.24543516</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3836,17 +3322,11 @@
         <v>10836406.83673516</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3875,17 +3355,11 @@
         <v>10719153.51693516</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3914,17 +3388,11 @@
         <v>10731153.51693516</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3953,17 +3421,11 @@
         <v>10729352.87113516</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3992,17 +3454,11 @@
         <v>10808654.33803516</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4031,17 +3487,11 @@
         <v>10803752.97583516</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4070,17 +3520,11 @@
         <v>10803752.97583516</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4109,17 +3553,11 @@
         <v>10796444.97583516</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4148,17 +3586,11 @@
         <v>10801310.84043516</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4187,17 +3619,11 @@
         <v>11239296.08613516</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4226,19 +3652,13 @@
         <v>11327163.63393516</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>1.012629179331307</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4265,7 +3685,7 @@
         <v>11329142.24103517</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4298,7 +3718,7 @@
         <v>11325562.24103517</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4331,7 +3751,7 @@
         <v>11508184.00293517</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4364,7 +3784,7 @@
         <v>11508184.00293517</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4397,7 +3817,7 @@
         <v>11508516.97784556</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4496,7 +3916,7 @@
         <v>9975103.886645555</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4529,7 +3949,7 @@
         <v>9975103.886645555</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4562,7 +3982,7 @@
         <v>9910203.886645555</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4595,7 +4015,7 @@
         <v>9710203.886645555</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4628,7 +4048,7 @@
         <v>9710314.877636546</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4661,7 +4081,7 @@
         <v>9702458.877636546</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4694,7 +4114,7 @@
         <v>9702458.877636546</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4727,7 +4147,7 @@
         <v>9714027.472936546</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4760,7 +4180,7 @@
         <v>9714027.472936546</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4793,7 +4213,7 @@
         <v>9835144.067736546</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4826,7 +4246,7 @@
         <v>9835112.067736546</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4859,7 +4279,7 @@
         <v>9847554.684836546</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4892,7 +4312,7 @@
         <v>9943378.895736545</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4925,7 +4345,7 @@
         <v>9943267.891527286</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4958,7 +4378,7 @@
         <v>9689080.672927286</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4991,7 +4411,7 @@
         <v>9679080.672927286</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5024,7 +4444,7 @@
         <v>9634762.046727287</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5057,7 +4477,7 @@
         <v>9655014.040627286</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5090,7 +4510,7 @@
         <v>9657212.573827285</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5123,7 +4543,7 @@
         <v>9638985.779327285</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5156,7 +4576,7 @@
         <v>9691253.248227285</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5189,7 +4609,7 @@
         <v>9649451.486027285</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5222,7 +4642,7 @@
         <v>9641289.486127285</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5255,7 +4675,7 @@
         <v>9641289.486127285</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5288,7 +4708,7 @@
         <v>9625726.786527285</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5354,7 +4774,7 @@
         <v>9836332.474427285</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5387,7 +4807,7 @@
         <v>9836332.474427285</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5420,7 +4840,7 @@
         <v>9839882.315027285</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5684,7 +5104,7 @@
         <v>9924375.055256933</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5717,7 +5137,7 @@
         <v>9924375.055256933</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5750,7 +5170,7 @@
         <v>9690741.709756933</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5783,7 +5203,7 @@
         <v>9402019.819256933</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5816,7 +5236,7 @@
         <v>9268248.932356933</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5849,7 +5269,7 @@
         <v>9376940.615756933</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5882,7 +5302,7 @@
         <v>9385972.900123432</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5915,7 +5335,7 @@
         <v>9384901.470123433</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5948,7 +5368,7 @@
         <v>9383830.040123433</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -9743,7 +9163,7 @@
         <v>6046588.890961668</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9776,7 +9196,7 @@
         <v>4547085.177961668</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9809,7 +9229,7 @@
         <v>4637269.123466668</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -12020,7 +11440,7 @@
         <v>7391190.459806069</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12053,7 +11473,7 @@
         <v>7391190.459806069</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12086,7 +11506,7 @@
         <v>7043903.926306069</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12119,7 +11539,7 @@
         <v>7423112.634106069</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12152,7 +11572,7 @@
         <v>7359205.109106068</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12185,7 +11605,7 @@
         <v>7378392.497706069</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12218,7 +11638,7 @@
         <v>6306910.643206069</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12251,7 +11671,7 @@
         <v>6306910.643206069</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12284,7 +11704,7 @@
         <v>6306910.643206069</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12317,7 +11737,7 @@
         <v>6306910.643206069</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12350,7 +11770,7 @@
         <v>6306910.643206069</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12383,7 +11803,7 @@
         <v>6639923.57206798</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12416,7 +11836,7 @@
         <v>6616549.10206798</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12449,7 +11869,7 @@
         <v>6384065.10206798</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12482,7 +11902,7 @@
         <v>6384065.10206798</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12515,7 +11935,7 @@
         <v>6384065.10206798</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12548,7 +11968,7 @@
         <v>6384065.10206798</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12581,7 +12001,7 @@
         <v>6383454.97526798</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12944,7 +12364,7 @@
         <v>5882315.660967981</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12977,7 +12397,7 @@
         <v>5841770.868967981</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13010,7 +12430,7 @@
         <v>5445036.791367981</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13043,7 +12463,7 @@
         <v>5456519.349467981</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13076,7 +12496,7 @@
         <v>4874239.03716798</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13109,7 +12529,7 @@
         <v>4874239.03716798</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13142,7 +12562,7 @@
         <v>4845078.40566798</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13175,7 +12595,7 @@
         <v>4651881.51146798</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13208,7 +12628,7 @@
         <v>4663938.16706798</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13241,7 +12661,7 @@
         <v>4653938.16706798</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13274,7 +12694,7 @@
         <v>4382817.706467981</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13307,7 +12727,7 @@
         <v>4809542.020367981</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13340,7 +12760,7 @@
         <v>4809778.230367981</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13373,7 +12793,7 @@
         <v>4936731.75966798</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13406,7 +12826,7 @@
         <v>5077766.15726798</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13439,7 +12859,7 @@
         <v>5070058.51966798</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13472,7 +12892,7 @@
         <v>5070058.51966798</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13538,7 +12958,7 @@
         <v>5073394.1692148</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13571,7 +12991,7 @@
         <v>4930304.6869148</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15947,7 +15367,7 @@
         <v>4227591.139672089</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18290,10 +17710,14 @@
         <v>-9288588.632432358</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="J525" t="n">
+        <v>16.34</v>
+      </c>
       <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
@@ -18323,11 +17747,19 @@
         <v>-9288588.632432358</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="J526" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18356,11 +17788,19 @@
         <v>-9288588.632432358</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="J527" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18389,10 +17829,14 @@
         <v>-9274080.706532359</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="J528" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
@@ -18422,91 +17866,101 @@
         <v>-9260667.72463236</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>16.39</v>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K529" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C530" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="D530" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="E530" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F530" t="n">
+        <v>140364.0118</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-9120303.71283236</v>
+      </c>
+      <c r="H530" t="n">
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J530" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C531" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="D531" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="E531" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="F531" t="n">
+        <v>18170</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-9120303.71283236</v>
+      </c>
+      <c r="H531" t="n">
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="J531" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K531" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C530" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="D530" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="E530" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F530" t="n">
-        <v>140364.0118</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-9120303.71283236</v>
-      </c>
-      <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="C531" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="D531" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="E531" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F531" t="n">
-        <v>18170</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-9120303.71283236</v>
-      </c>
-      <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18535,10 +17989,14 @@
         <v>-9120303.71283236</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="J532" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18575,7 +18033,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18612,7 +18072,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18646,10 +18108,14 @@
         <v>-9100809.776532359</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="J535" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18683,12 +18149,14 @@
         <v>-8987851.830632359</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I536" t="n">
         <v>16.41</v>
       </c>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18722,10 +18190,14 @@
         <v>-8987851.830632359</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="J537" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18759,10 +18231,14 @@
         <v>-8436107.648732359</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="J538" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18799,7 +18275,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18836,7 +18314,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18873,7 +18353,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18910,7 +18392,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18947,7 +18431,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18984,7 +18470,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19021,7 +18509,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19055,12 +18545,12 @@
         <v>-8430596.266132357</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="J546" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19094,12 +18584,12 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19133,12 +18623,12 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19172,12 +18662,14 @@
         <v>-9138901.973832356</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>16.43</v>
       </c>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19211,12 +18703,14 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>16.47</v>
       </c>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19250,12 +18744,14 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>16.45</v>
       </c>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19289,12 +18785,14 @@
         <v>-9172973.204632357</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>16.45</v>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19328,12 +18826,14 @@
         <v>-9321671.852032356</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>16.42</v>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19367,12 +18867,14 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>16.41</v>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19406,12 +18908,14 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>16.42</v>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19445,12 +18949,14 @@
         <v>-9206006.435832355</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>16.42</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19484,12 +18990,14 @@
         <v>-9102598.687532356</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I557" t="n">
         <v>16.46</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19523,12 +19031,12 @@
         <v>-9063036.417532356</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="J558" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19562,12 +19070,12 @@
         <v>-8932100.962032357</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
-      </c>
-      <c r="I559" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="J559" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19604,7 +19112,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19641,7 +19151,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19678,7 +19190,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19715,7 +19229,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19752,7 +19268,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19789,7 +19307,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19826,7 +19346,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19863,7 +19385,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19900,7 +19424,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19937,7 +19463,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19974,7 +19502,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20011,7 +19541,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20045,12 +19577,12 @@
         <v>-8784341.727613769</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20084,12 +19616,12 @@
         <v>-8760675.44451377</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20123,12 +19655,12 @@
         <v>-8760675.44451377</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20162,12 +19694,12 @@
         <v>-8705702.87416058</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20201,12 +19733,12 @@
         <v>-8787592.374107391</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20240,12 +19772,14 @@
         <v>-8787592.374107391</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I577" t="n">
         <v>16.54</v>
       </c>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20279,12 +19813,14 @@
         <v>-8789465.936107391</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I578" t="n">
         <v>16.54</v>
       </c>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20318,12 +19854,14 @@
         <v>-8791296.356107391</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I579" t="n">
         <v>16.53</v>
       </c>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20357,12 +19895,14 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I580" t="n">
         <v>16.51</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20396,12 +19936,14 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>16.49</v>
       </c>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20435,12 +19977,14 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>16.49</v>
       </c>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20474,12 +20018,14 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>16.49</v>
       </c>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20513,12 +20059,14 @@
         <v>-9599844.80090739</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>16.49</v>
       </c>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20552,12 +20100,14 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>16.43</v>
       </c>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20591,12 +20141,14 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>16.42</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20630,12 +20182,14 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>16.42</v>
       </c>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20669,12 +20223,14 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I588" t="n">
         <v>16.42</v>
       </c>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20708,12 +20264,14 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589" t="n">
         <v>16.4</v>
       </c>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,12 +20305,14 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I590" t="n">
         <v>16.4</v>
       </c>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20786,10 +20346,14 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="J591" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20823,10 +20387,14 @@
         <v>-9892458.344907388</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="J592" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20860,10 +20428,14 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="J593" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20897,10 +20469,14 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="J594" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20934,10 +20510,14 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="J595" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20971,10 +20551,14 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="J596" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21008,10 +20592,14 @@
         <v>-9869220.820007389</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="J597" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21045,10 +20633,14 @@
         <v>-9857480.53480739</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="J598" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21082,10 +20674,14 @@
         <v>-9860580.53480739</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J599" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21119,10 +20715,14 @@
         <v>-9859666.93480739</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="J600" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21156,10 +20756,14 @@
         <v>-9904279.10560739</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J601" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21193,10 +20797,14 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J602" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21230,10 +20838,14 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J603" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21267,10 +20879,14 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J604" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21304,12 +20920,14 @@
         <v>-9892951.91300739</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I605" t="n">
         <v>16.49</v>
       </c>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21343,12 +20961,14 @@
         <v>-9892951.91300739</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606" t="n">
         <v>16.48</v>
       </c>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21382,12 +21002,14 @@
         <v>-9863675.203007389</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I607" t="n">
         <v>16.48</v>
       </c>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21421,12 +21043,14 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I608" t="n">
         <v>16.49</v>
       </c>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21460,12 +21084,14 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I609" t="n">
         <v>16.5</v>
       </c>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21499,12 +21125,14 @@
         <v>-9808728.462507389</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I610" t="n">
         <v>16.5</v>
       </c>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21538,12 +21166,14 @@
         <v>-9808728.462507389</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I611" t="n">
         <v>16.48</v>
       </c>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21577,12 +21207,14 @@
         <v>-9775658.019607389</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I612" t="n">
         <v>16.48</v>
       </c>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21616,12 +21248,14 @@
         <v>-9754017.920107389</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I613" t="n">
         <v>16.5</v>
       </c>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21655,12 +21289,14 @@
         <v>-9764431.310205748</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>16.51</v>
       </c>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21694,12 +21330,14 @@
         <v>-9710054.823805748</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I615" t="n">
         <v>16.47</v>
       </c>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21733,12 +21371,14 @@
         <v>-9008446.280874977</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I616" t="n">
         <v>16.51</v>
       </c>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21772,12 +21412,12 @@
         <v>-9672243.532374976</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="J617" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21814,7 +21454,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21851,7 +21493,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21888,7 +21532,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21925,7 +21571,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21962,7 +21610,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21999,7 +21649,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22036,7 +21688,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22073,7 +21727,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22110,7 +21766,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22147,7 +21805,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22184,7 +21844,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22221,7 +21883,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22258,7 +21922,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22295,7 +21961,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22332,7 +22000,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22369,7 +22039,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22406,7 +22078,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22443,7 +22117,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22480,7 +22156,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22517,7 +22195,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22554,7 +22234,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22591,7 +22273,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22628,7 +22312,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22665,7 +22351,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22702,7 +22390,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22736,16 +22426,20 @@
         <v>-8436866.979648393</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>16.38</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
       <c r="M643" t="inlineStr"/>
     </row>
     <row r="644">
@@ -22771,11 +22465,17 @@
         <v>-8379321.366248392</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22804,11 +22504,17 @@
         <v>-8378724.704048392</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22837,11 +22543,17 @@
         <v>-8378757.704048392</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22870,11 +22582,17 @@
         <v>-8451022.388948392</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22903,11 +22621,17 @@
         <v>-8386057.596148392</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22936,11 +22660,17 @@
         <v>-8386057.596148392</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22972,8 +22702,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23005,8 +22741,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23038,8 +22780,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23068,11 +22816,19 @@
         <v>-9857051.866648391</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="J653" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23101,11 +22857,19 @@
         <v>-9821498.909348391</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="J654" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23134,11 +22898,19 @@
         <v>-9720596.39434839</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="J655" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23167,11 +22939,19 @@
         <v>-9247773.379848391</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="J656" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23203,8 +22983,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23236,8 +23022,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23269,8 +23061,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23302,8 +23100,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23335,8 +23139,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23368,8 +23178,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23401,8 +23217,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23434,8 +23256,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23467,8 +23295,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23500,8 +23334,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23530,11 +23370,19 @@
         <v>-10505007.31744839</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="J667" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23563,11 +23411,19 @@
         <v>-10714859.22114839</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="J668" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23596,11 +23452,19 @@
         <v>-10914859.22114839</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J669" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23629,11 +23493,19 @@
         <v>-10832296.22124839</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="J670" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23662,11 +23534,19 @@
         <v>-10834534.90704839</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J671" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23695,11 +23575,19 @@
         <v>-10948337.00954839</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="J672" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23728,11 +23616,19 @@
         <v>-10905354.06264839</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="J673" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23761,11 +23657,19 @@
         <v>-10703737.45164839</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="J674" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23794,11 +23698,19 @@
         <v>-10493642.73864839</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="J675" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23827,11 +23739,19 @@
         <v>-10116377.12414839</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="J676" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23860,11 +23780,19 @@
         <v>-10116377.12414839</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="J677" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23893,11 +23821,19 @@
         <v>-10116377.12414839</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="J678" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23926,11 +23862,19 @@
         <v>-10116377.12414839</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="J679" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23959,11 +23903,19 @@
         <v>-10116377.12414839</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="J680" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23995,8 +23947,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24025,11 +23983,19 @@
         <v>-8039331.666238469</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="J682" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24061,8 +24027,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24094,8 +24066,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24127,8 +24105,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24160,8 +24144,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24193,8 +24183,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24226,8 +24222,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24259,8 +24261,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24292,8 +24300,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24325,8 +24339,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24358,8 +24378,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24391,8 +24417,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24424,8 +24456,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24457,8 +24495,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24490,8 +24534,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24523,8 +24573,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24556,8 +24612,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24589,8 +24651,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24622,8 +24690,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24655,8 +24729,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24688,8 +24768,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24721,8 +24807,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24754,8 +24846,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24787,8 +24885,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24820,8 +24924,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24853,8 +24963,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24886,8 +25002,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24919,8 +25041,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24952,8 +25080,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24985,8 +25119,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25018,8 +25158,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25051,8 +25197,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25084,8 +25236,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25117,8 +25275,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25150,8 +25314,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25183,8 +25353,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25216,8 +25392,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25249,8 +25431,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25282,8 +25470,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25315,8 +25509,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25348,8 +25548,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25381,8 +25587,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25414,8 +25626,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25447,8 +25665,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25480,8 +25704,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25513,8 +25743,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25546,8 +25782,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25579,8 +25821,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25612,8 +25860,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25645,8 +25899,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25678,8 +25938,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25711,8 +25977,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25744,8 +26016,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25777,8 +26055,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25810,8 +26094,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25843,8 +26133,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25876,8 +26172,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25909,8 +26211,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25942,8 +26250,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25975,8 +26289,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26008,8 +26328,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26041,8 +26367,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26071,11 +26403,19 @@
         <v>-9596912.022408979</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="J744" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26104,11 +26444,19 @@
         <v>-9068668.93110898</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="J745" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26140,8 +26488,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26173,8 +26527,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26203,11 +26563,19 @@
         <v>-6465487.94830898</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="J748" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26239,8 +26607,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26272,8 +26646,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26305,8 +26685,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26338,8 +26724,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26368,11 +26760,19 @@
         <v>-5960811.839308981</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="J753" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26401,11 +26801,19 @@
         <v>-5905183.495508981</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="J754" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26437,8 +26845,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26470,8 +26884,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26503,8 +26923,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26536,8 +26962,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26569,8 +27001,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26602,8 +27040,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26635,8 +27079,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26668,8 +27118,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26701,8 +27157,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26734,8 +27196,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26767,8 +27235,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26800,8 +27274,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26833,8 +27313,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26866,8 +27352,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26899,8 +27391,14 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26932,8 +27430,14 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26965,8 +27469,14 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26998,8 +27508,14 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27031,8 +27547,14 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27064,8 +27586,14 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27097,8 +27625,14 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27130,8 +27664,14 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27163,8 +27703,14 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27196,8 +27742,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27229,8 +27781,14 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27259,15 +27817,17 @@
         <v>-5976132.693922162</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K780" t="inlineStr"/>
+        <v>16.38</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27300,11 +27860,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="n">
-        <v>16.5</v>
+        <v>16.38</v>
       </c>
       <c r="K781" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L781" t="n">
@@ -27339,11 +27899,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="n">
-        <v>16.5</v>
+        <v>16.38</v>
       </c>
       <c r="K782" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L782" t="n">
@@ -27377,8 +27937,14 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27410,8 +27976,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27443,8 +28015,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27476,8 +28054,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27509,8 +28093,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27542,8 +28132,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27575,8 +28171,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27608,8 +28210,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27641,8 +28249,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27674,8 +28288,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27707,8 +28327,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27737,15 +28363,17 @@
         <v>-6131544.111152863</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="K794" t="inlineStr"/>
+        <v>16.38</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27778,11 +28406,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="n">
-        <v>16.53</v>
+        <v>16.38</v>
       </c>
       <c r="K795" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L795" t="n">
@@ -27817,11 +28445,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="n">
-        <v>16.53</v>
+        <v>16.38</v>
       </c>
       <c r="K796" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L796" t="n">
@@ -27855,8 +28483,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27888,8 +28522,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27921,8 +28561,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27954,8 +28600,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27987,14 +28639,20 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
       <c r="M801" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest TRX.xlsx
+++ b/BackTest/2020-01-12 BackTest TRX.xlsx
@@ -979,7 +979,7 @@
         <v>3161310.88584351</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3125280.43164351</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>3125280.43164351</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3288083.40694351</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>8356371.53054351</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>7600452.60154351</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>6625838.785887791</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>7538823.36713207</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>6360471.065532071</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>6360471.065532071</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>7107574.170032071</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>6909643.087832071</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>6597527.443632071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6445611.950432071</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>8194473.484332071</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>8236273.484332071</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>7470352.53821718</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>7759013.17876962</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>7467937.52436962</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>9595191.385669619</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>9549499.596869618</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>10158687.31203517</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>10146220.04823517</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>10084551.16573517</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -18139,11 +18139,17 @@
         <v>-8436107.648732359</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +18182,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +18219,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +18256,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +18293,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18330,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +18367,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +18404,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18437,17 @@
         <v>-8430596.266132357</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18476,17 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18515,17 @@
         <v>-9146958.412532356</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18554,17 @@
         <v>-9138901.973832356</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18535,11 +18593,17 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +18632,17 @@
         <v>-9140316.435432356</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18601,11 +18671,17 @@
         <v>-9172973.204632357</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18634,11 +18710,17 @@
         <v>-9321671.852032356</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +18749,17 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>16.41</v>
+      </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18700,11 +18788,17 @@
         <v>-9310167.945632355</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18733,11 +18827,17 @@
         <v>-9206006.435832355</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18766,11 +18866,17 @@
         <v>-9102598.687532356</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>16.46</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18799,11 +18905,17 @@
         <v>-9063036.417532356</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18944,17 @@
         <v>-8932100.962032357</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +18983,17 @@
         <v>-8721573.269632358</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +19022,17 @@
         <v>-8752847.669632358</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +19061,17 @@
         <v>-8752847.669632358</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +19100,17 @@
         <v>-8752656.381832359</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +19139,17 @@
         <v>-8752656.381832359</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +19178,17 @@
         <v>-8752656.381832359</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +19217,17 @@
         <v>-8752950.108368909</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +19256,17 @@
         <v>-8752950.108368909</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19295,17 @@
         <v>-8752617.097486209</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19334,17 @@
         <v>-8752617.097486209</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19373,17 @@
         <v>-8752617.097486209</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19228,11 +19412,17 @@
         <v>-8758157.26368621</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19451,17 @@
         <v>-8784341.727613769</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19294,11 +19490,17 @@
         <v>-8760675.44451377</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19327,11 +19529,17 @@
         <v>-8760675.44451377</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19360,11 +19568,17 @@
         <v>-8705702.87416058</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19393,11 +19607,17 @@
         <v>-8787592.374107391</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19426,11 +19646,17 @@
         <v>-8787592.374107391</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19459,11 +19685,17 @@
         <v>-8789465.936107391</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19492,11 +19724,17 @@
         <v>-8791296.356107391</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19525,11 +19763,17 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19558,11 +19802,17 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19591,11 +19841,17 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19880,17 @@
         <v>-9109473.721607391</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19657,11 +19919,17 @@
         <v>-9599844.80090739</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19690,11 +19958,17 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19997,17 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19756,11 +20036,17 @@
         <v>-9610720.32540739</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +20075,17 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19822,11 +20114,17 @@
         <v>-9844555.206407389</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19855,11 +20153,17 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>16.4</v>
+      </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19888,11 +20192,17 @@
         <v>-9831545.827107389</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19921,11 +20231,17 @@
         <v>-9892458.344907388</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>16.45</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +20270,17 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>16.41</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +20309,17 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20348,17 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20387,17 @@
         <v>-9885995.007807389</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20086,11 +20426,17 @@
         <v>-9869220.820007389</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>16.42</v>
+      </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20119,11 +20465,17 @@
         <v>-9857480.53480739</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>16.46</v>
+      </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20152,11 +20504,17 @@
         <v>-9860580.53480739</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20185,11 +20543,17 @@
         <v>-9859666.93480739</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>16.43</v>
+      </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +20582,17 @@
         <v>-9904279.10560739</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20251,11 +20621,17 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20660,17 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20317,11 +20699,17 @@
         <v>-9871203.93560739</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20350,11 +20738,17 @@
         <v>-9892951.91300739</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20383,11 +20777,17 @@
         <v>-9892951.91300739</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20416,11 +20816,17 @@
         <v>-9863675.203007389</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20449,11 +20855,17 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>16.49</v>
+      </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20482,11 +20894,17 @@
         <v>-9808253.310307389</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20515,11 +20933,17 @@
         <v>-9808728.462507389</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20548,11 +20972,17 @@
         <v>-9808728.462507389</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +21011,17 @@
         <v>-9775658.019607389</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20614,11 +21050,17 @@
         <v>-9754017.920107389</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20647,11 +21089,17 @@
         <v>-9764431.310205748</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +21128,17 @@
         <v>-9710054.823805748</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +21167,17 @@
         <v>-9008446.280874977</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +21206,17 @@
         <v>-9672243.532374976</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21245,17 @@
         <v>-9672343.532374976</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21284,17 @@
         <v>-9586367.439374976</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +21323,17 @@
         <v>-9586367.439374976</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21362,17 @@
         <v>-10161266.79607498</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20911,11 +21401,17 @@
         <v>-10161266.79607498</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20944,11 +21440,17 @@
         <v>-9902975.397974975</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21483,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +21520,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +21557,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +21594,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21631,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21668,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21705,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21742,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21779,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21816,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21853,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21890,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +21927,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21964,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +22001,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +22038,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +22075,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +22112,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +22149,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +22186,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +22223,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +22260,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +22297,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,7 +22334,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21773,7 +22371,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21806,7 +22408,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +22445,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21872,7 +22482,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21905,7 +22519,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21938,7 +22556,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21971,7 +22593,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22004,7 +22630,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22037,7 +22667,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +22704,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +22741,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +22778,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +22815,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +22852,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +22889,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +22926,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +22963,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +23000,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22367,7 +23037,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22400,7 +23074,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22433,7 +23111,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22466,7 +23148,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22499,7 +23185,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22532,7 +23222,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22565,7 +23259,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22598,7 +23296,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +23333,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22664,7 +23370,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +23407,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +23444,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +23481,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +23518,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +23555,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +23592,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22895,7 +23629,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +23666,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +23703,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22994,7 +23740,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23027,7 +23777,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23060,7 +23814,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23093,7 +23851,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23126,7 +23888,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23159,7 +23925,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23192,7 +23962,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23225,7 +23999,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23258,7 +24036,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23291,7 +24073,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23324,7 +24110,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23357,7 +24147,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23390,7 +24184,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23423,7 +24221,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23456,7 +24258,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23489,7 +24295,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23522,7 +24332,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,7 +24369,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23588,7 +24406,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23621,7 +24443,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23654,7 +24480,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23687,7 +24517,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23720,7 +24554,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23753,7 +24591,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23786,7 +24628,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23819,7 +24665,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +24702,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +24739,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +24776,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +24813,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24850,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24017,7 +24887,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24050,7 +24924,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24083,7 +24961,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24998,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24149,7 +25035,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24182,7 +25072,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24215,7 +25109,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24248,7 +25146,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24281,7 +25183,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24314,7 +25220,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24347,7 +25257,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +25294,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24413,7 +25331,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24446,7 +25368,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24479,7 +25405,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,7 +25442,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24545,7 +25479,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24578,7 +25516,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24611,7 +25553,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24644,7 +25590,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24677,7 +25627,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24710,7 +25664,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24743,7 +25701,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24776,7 +25738,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24805,15 +25771,13 @@
         <v>-9459692.141108979</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L740" t="n">
@@ -24844,11 +25808,9 @@
         <v>-9323882.104108978</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>16.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -24957,11 +25919,9 @@
         <v>-9596912.022408979</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>16.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -24996,11 +25956,9 @@
         <v>-9068668.93110898</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>16.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25035,11 +25993,9 @@
         <v>-9070946.23100898</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>16.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25074,11 +26030,9 @@
         <v>-9190895.85090898</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>16.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25113,11 +26067,9 @@
         <v>-6465487.94830898</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>16.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
